--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhil/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhil/Downloads/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67163D1B-7A09-AE44-A0CC-757A8F570D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875218BE-E785-FF46-81D5-37AA1D53261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" activeTab="2" xr2:uid="{ED60254A-D006-264D-B31E-363F051C439E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" activeTab="6" xr2:uid="{ED60254A-D006-264D-B31E-363F051C439E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,6 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet7!$F$54</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet7!$F$55:$F$59</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet7!$F$56:$I$56</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet7!$F$57:$I$57</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet7!$F$58:$I$58</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet7!$F$59:$I$59</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet7!$G$54</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet7!$G$55:$G$59</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet7!$H$54</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet7!$H$55:$H$59</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet7!$I$54</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet7!$I$55:$I$59</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet7!$F$54:$I$54</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet7!$F$55:$I$55</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31628,22 +31612,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E7D4434-2179-DE48-900D-41E8146CCBB1}" name="Table1" displayName="Table1" ref="A2:B7" totalsRowShown="0" headerRowDxfId="81" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E7D4434-2179-DE48-900D-41E8146CCBB1}" name="Table1" displayName="Table1" ref="A2:B7" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A2:B7" xr:uid="{0E7D4434-2179-DE48-900D-41E8146CCBB1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{18CF7CD7-7B26-BB41-B235-57E285C27C8F}" name="Algorithm" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{53C48BF6-6EAC-BC4F-B79F-C44FA7746FA5}" name="Runtime for N = 250,000" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{18CF7CD7-7B26-BB41-B235-57E285C27C8F}" name="Algorithm" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{53C48BF6-6EAC-BC4F-B79F-C44FA7746FA5}" name="Runtime for N = 250,000" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FAFA1726-8165-2840-A84D-158588243C6E}" name="Table10" displayName="Table10" ref="A11:B15" totalsRowShown="0" headerRowDxfId="45" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FAFA1726-8165-2840-A84D-158588243C6E}" name="Table10" displayName="Table10" ref="A11:B15" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A11:B15" xr:uid="{FAFA1726-8165-2840-A84D-158588243C6E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7005769B-BACA-2E4E-846C-B2D7C9329B09}" name="Algorithm" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{8C2987C1-9CE7-EB45-8697-1AD66DE0B292}" name="Runtime for N = 250,000" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{7005769B-BACA-2E4E-846C-B2D7C9329B09}" name="Algorithm" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{8C2987C1-9CE7-EB45-8697-1AD66DE0B292}" name="Runtime for N = 250,000" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31758,88 +31742,88 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35985D26-A544-3345-B639-7AE74106A180}" name="Table2" displayName="Table2" ref="D2:E7" totalsRowShown="0" headerRowDxfId="77" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35985D26-A544-3345-B639-7AE74106A180}" name="Table2" displayName="Table2" ref="D2:E7" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="D2:E7" xr:uid="{35985D26-A544-3345-B639-7AE74106A180}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C50A009D-098B-3D42-9454-07D73BEE7C82}" name="Algorithm" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{C95F2927-60AC-E046-8CDF-DA15F3E93272}" name="Runtime for N = 500,000" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{C50A009D-098B-3D42-9454-07D73BEE7C82}" name="Algorithm" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{C95F2927-60AC-E046-8CDF-DA15F3E93272}" name="Runtime for N = 500,000" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{914F3197-7EE2-9E4B-A534-6F6E378A20B2}" name="Table3" displayName="Table3" ref="G2:H7" totalsRowShown="0" headerRowDxfId="73" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{914F3197-7EE2-9E4B-A534-6F6E378A20B2}" name="Table3" displayName="Table3" ref="G2:H7" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="G2:H7" xr:uid="{914F3197-7EE2-9E4B-A534-6F6E378A20B2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1F07CC59-7DE9-0E4C-A35C-C0F417938AA4}" name="Algorithm" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{E3601BC8-2F5F-BF4E-B37A-37D9F1B7C4EB}" name="Runtime for N = 1,000,000" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{1F07CC59-7DE9-0E4C-A35C-C0F417938AA4}" name="Algorithm" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{E3601BC8-2F5F-BF4E-B37A-37D9F1B7C4EB}" name="Runtime for N = 1,000,000" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8812792C-21B0-9C47-827B-052A5A0DA018}" name="Table4" displayName="Table4" ref="J2:K7" totalsRowShown="0" headerRowDxfId="69" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8812792C-21B0-9C47-827B-052A5A0DA018}" name="Table4" displayName="Table4" ref="J2:K7" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="J2:K7" xr:uid="{8812792C-21B0-9C47-827B-052A5A0DA018}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{81BE4FE7-348B-0B47-84EB-4D1768646431}" name="Algorithm" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{A241E9B9-8DC4-204C-9904-0DEAF8E7D18C}" name="Runtime for N = 2,000,000" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{81BE4FE7-348B-0B47-84EB-4D1768646431}" name="Algorithm" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{A241E9B9-8DC4-204C-9904-0DEAF8E7D18C}" name="Runtime for N = 2,000,000" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5938C5FB-AAB3-CD49-8662-0D66445CAFDF}" name="Table5" displayName="Table5" ref="M2:N7" totalsRowShown="0" headerRowDxfId="65" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5938C5FB-AAB3-CD49-8662-0D66445CAFDF}" name="Table5" displayName="Table5" ref="M2:N7" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="M2:N7" xr:uid="{5938C5FB-AAB3-CD49-8662-0D66445CAFDF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8B17E2E3-A399-9D4E-A216-5D32437DA879}" name="Algorithm" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{A8D93285-56C1-A74D-84DC-6593CDCC2A1E}" name="Runtime for N = 4,000,000" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{8B17E2E3-A399-9D4E-A216-5D32437DA879}" name="Algorithm" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{A8D93285-56C1-A74D-84DC-6593CDCC2A1E}" name="Runtime for N = 4,000,000" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{72D47BD2-EE42-5F4F-A3D5-AD741DA27F2F}" name="Table6" displayName="Table6" ref="D11:E15" totalsRowShown="0" headerRowDxfId="61" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{72D47BD2-EE42-5F4F-A3D5-AD741DA27F2F}" name="Table6" displayName="Table6" ref="D11:E15" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="D11:E15" xr:uid="{72D47BD2-EE42-5F4F-A3D5-AD741DA27F2F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E5FFB58E-0FB7-9A4D-94B6-4BD4C5C9292A}" name="Algorithm" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{A734B37D-23FC-5345-A948-F97BE90B4C5B}" name="Runtime for N = 500,000" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{E5FFB58E-0FB7-9A4D-94B6-4BD4C5C9292A}" name="Algorithm" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{A734B37D-23FC-5345-A948-F97BE90B4C5B}" name="Runtime for N = 500,000" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD241E0F-6999-AF48-A0D6-B6330A1CF2F7}" name="Table7" displayName="Table7" ref="G11:H15" totalsRowShown="0" headerRowDxfId="57" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD241E0F-6999-AF48-A0D6-B6330A1CF2F7}" name="Table7" displayName="Table7" ref="G11:H15" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="G11:H15" xr:uid="{FD241E0F-6999-AF48-A0D6-B6330A1CF2F7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6A9F0A1D-F1E6-494A-8077-3B49D4157C08}" name="Algorithm" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{95AF2741-E264-DB44-848C-639111762277}" name="Runtime for N = 1,000,000" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{6A9F0A1D-F1E6-494A-8077-3B49D4157C08}" name="Algorithm" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{95AF2741-E264-DB44-848C-639111762277}" name="Runtime for N = 1,000,000" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8263D19E-5DA2-EC45-90D3-37A8053B9AAA}" name="Table8" displayName="Table8" ref="J11:K15" totalsRowShown="0" headerRowDxfId="53" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8263D19E-5DA2-EC45-90D3-37A8053B9AAA}" name="Table8" displayName="Table8" ref="J11:K15" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="J11:K15" xr:uid="{8263D19E-5DA2-EC45-90D3-37A8053B9AAA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F6827491-62EA-D64D-AE63-C99AF5886DF0}" name="Algorithm" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{4EF96768-7FBD-B64F-A397-BADBDF39DD12}" name="Runtime for N = 2,000,000" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{F6827491-62EA-D64D-AE63-C99AF5886DF0}" name="Algorithm" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{4EF96768-7FBD-B64F-A397-BADBDF39DD12}" name="Runtime for N = 2,000,000" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92B39D23-29AE-D145-BFEF-DABDC0592CD2}" name="Table9" displayName="Table9" ref="M11:N15" totalsRowShown="0" headerRowDxfId="49" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92B39D23-29AE-D145-BFEF-DABDC0592CD2}" name="Table9" displayName="Table9" ref="M11:N15" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="M11:N15" xr:uid="{92B39D23-29AE-D145-BFEF-DABDC0592CD2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F4780ED8-C300-CF47-938B-966F04B099C6}" name="Algorithm" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{A5CB2E34-296A-4548-B108-AE4B0AE914FF}" name="Runtime for N = 4,000,000" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{F4780ED8-C300-CF47-938B-966F04B099C6}" name="Algorithm" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{A5CB2E34-296A-4548-B108-AE4B0AE914FF}" name="Runtime for N = 4,000,000" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32595,7 +32579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC642D4C-3D93-A54A-AE56-87BE9C544A77}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -32610,7 +32594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9273FB4C-7DD7-1542-961B-3E4EA760B812}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="S22" sqref="S22:T26"/>
     </sheetView>
   </sheetViews>
@@ -34008,7 +33992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EFBC51-C1EC-5C4A-9B70-6DA817C6B60C}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="E36" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E36" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
